--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>שם מלא</t>
   </si>
@@ -30,16 +30,82 @@
     <t>ניקוד</t>
   </si>
   <si>
-    <t>kiril</t>
+    <t>ליאת נתח</t>
   </si>
   <si>
     <t>12345</t>
   </si>
   <si>
-    <t>rom</t>
+    <t>קיריל</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>רום</t>
+  </si>
+  <si>
+    <t>אוראל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titi	</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>yuk</t>
   </si>
   <si>
     <t>liat</t>
+  </si>
+  <si>
+    <t>12456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אוראלי	</t>
+  </si>
+  <si>
+    <t>456890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לינוי	</t>
+  </si>
+  <si>
+    <t>68768</t>
+  </si>
+  <si>
+    <t>yyy</t>
+  </si>
+  <si>
+    <t>555</t>
+  </si>
+  <si>
+    <t>אוי</t>
+  </si>
+  <si>
+    <t>זבה</t>
+  </si>
+  <si>
+    <t>678</t>
+  </si>
+  <si>
+    <t>ליאתי</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">פיפי	</t>
+  </si>
+  <si>
+    <t>987</t>
+  </si>
+  <si>
+    <t>פיפי</t>
+  </si>
+  <si>
+    <t>1234</t>
   </si>
 </sst>
 </file>
@@ -94,14 +160,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0390625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.68359375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0390625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.68359375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -120,6 +186,38 @@
         <v>6</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -127,16 +225,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0390625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.82421875" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.83984375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5234375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0390625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.82421875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.83984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.5234375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -153,118 +251,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="n">
-        <v>43985.714080324076</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>43985.71408087963</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="n">
-        <v>43985.71419133102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>43985.71419162037</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="n">
-        <v>43985.714233645835</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>43985.71423384259</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>43985.71429096065</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>43985.71429119213</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
   <si>
     <t>שם מלא</t>
   </si>
@@ -30,82 +30,25 @@
     <t>ניקוד</t>
   </si>
   <si>
-    <t>ליאת נתח</t>
+    <t>rom</t>
   </si>
   <si>
     <t>12345</t>
   </si>
   <si>
-    <t>קיריל</t>
-  </si>
-  <si>
-    <t>111111</t>
-  </si>
-  <si>
-    <t>רום</t>
-  </si>
-  <si>
-    <t>אוראל</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titi	</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>yuk</t>
-  </si>
-  <si>
-    <t>liat</t>
-  </si>
-  <si>
-    <t>12456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אוראלי	</t>
-  </si>
-  <si>
-    <t>456890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לינוי	</t>
-  </si>
-  <si>
-    <t>68768</t>
-  </si>
-  <si>
-    <t>yyy</t>
-  </si>
-  <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>אוי</t>
-  </si>
-  <si>
-    <t>זבה</t>
-  </si>
-  <si>
-    <t>678</t>
-  </si>
-  <si>
-    <t>ליאתי</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t xml:space="preserve">פיפי	</t>
-  </si>
-  <si>
-    <t>987</t>
-  </si>
-  <si>
-    <t>פיפי</t>
+    <t>ליאת</t>
   </si>
   <si>
     <t>1234</t>
+  </si>
+  <si>
+    <t>AgainstRival</t>
+  </si>
+  <si>
+    <t>AgainstTime</t>
+  </si>
+  <si>
+    <t>AgainstComputer</t>
   </si>
 </sst>
 </file>
@@ -150,17 +93,22 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -194,30 +142,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -225,7 +149,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -233,7 +157,7 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="10.0390625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="16.82421875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.83984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.65625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="6.5234375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -251,6 +175,174 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>43986.88948068287</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>43986.88975449074</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>43986.89234935185</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>95.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>43986.89311592592</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>43986.90631704861</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="n">
+        <v>43986.90631896991</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>43986.90885979166</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>43986.90886189815</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>43986.92069619213</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>43986.9279290625</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>43986.93332945602</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="n">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>43986.933329976855</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>שם מלא</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>AgainstComputer</t>
+  </si>
+  <si>
+    <t>קיריל</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>קיריל צרננקו</t>
+  </si>
+  <si>
+    <t>323439711</t>
+  </si>
+  <si>
+    <t>אחד נגד השני</t>
+  </si>
+  <si>
+    <t>נגד המחשב</t>
   </si>
 </sst>
 </file>
@@ -93,9 +111,186 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="185">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -108,13 +303,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0390625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.9921875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="13.68359375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -140,6 +335,22 @@
       </c>
       <c r="B3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -149,7 +360,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -343,6 +554,76 @@
         <v>10.0</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="44" t="n">
+        <v>43987.70588203704</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="44" t="n">
+        <v>43987.705882662034</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="n">
+        <v>60.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="166" t="n">
+        <v>43988.58764060185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="166" t="n">
+        <v>43988.587641377315</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="167" t="n">
+        <v>43988.58928130787</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -111,9 +111,32 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="208">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>

--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
   <si>
     <t>שם מלא</t>
   </si>
@@ -111,9 +111,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="214">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -383,7 +389,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -647,6 +653,34 @@
         <v>50.0</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="209" t="n">
+        <v>43989.85160238426</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="209" t="n">
+        <v>43989.85160335648</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -111,9 +111,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>

--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="13">
   <si>
     <t>שם מלא</t>
   </si>
@@ -30,43 +30,28 @@
     <t>ניקוד</t>
   </si>
   <si>
-    <t>rom</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>ליאת</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>AgainstRival</t>
-  </si>
-  <si>
-    <t>AgainstTime</t>
-  </si>
-  <si>
-    <t>AgainstComputer</t>
-  </si>
-  <si>
-    <t>קיריל</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>קיריל צרננקו</t>
+    <t>ליאת נתח</t>
+  </si>
+  <si>
+    <t>123454321</t>
+  </si>
+  <si>
+    <t>קיריל צ'רננקו</t>
+  </si>
+  <si>
+    <t>654321234</t>
+  </si>
+  <si>
+    <t>אחד נגד השני</t>
+  </si>
+  <si>
+    <t>123423452</t>
+  </si>
+  <si>
+    <t>273849767</t>
   </si>
   <si>
     <t>323439711</t>
-  </si>
-  <si>
-    <t>אחד נגד השני</t>
-  </si>
-  <si>
-    <t>נגד המחשב</t>
   </si>
 </sst>
 </file>
@@ -111,190 +96,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -333,13 +137,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.9921875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.4765625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="13.68359375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -356,7 +160,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -364,23 +168,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -390,15 +178,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.0390625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.4765625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="16.82421875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.65625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.83984375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="6.5234375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -420,266 +208,476 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
-        <v>43986.88948068287</v>
+      <c r="B2" s="8" t="n">
+        <v>43990.70622037037</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>20.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>43986.88975449074</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="13" t="n">
+        <v>43990.71955028935</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>43986.89234935185</v>
+      <c r="B4" s="16" t="n">
+        <v>43990.75938189815</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>95.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>43986.89311592592</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="16" t="n">
+        <v>43990.759382199074</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>35.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>43986.90631704861</v>
+      <c r="B6" s="17" t="n">
+        <v>43990.76131693287</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="n">
-        <v>43986.90631896991</v>
+      <c r="B7" s="17" t="n">
+        <v>43990.761317453704</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="n">
-        <v>43986.90885979166</v>
+      <c r="B8" s="18" t="n">
+        <v>43990.76232605324</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>43986.90886189815</v>
+      <c r="B9" s="18" t="n">
+        <v>43990.76232664352</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>45.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="n">
-        <v>43986.92069619213</v>
+      <c r="B10" s="19" t="n">
+        <v>43990.76331209491</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="n">
-        <v>100.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>43986.9279290625</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="19" t="n">
+        <v>43990.763312766205</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>43986.93332945602</v>
+      <c r="B12" s="20" t="n">
+        <v>43990.76434649306</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>35.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>43986.933329976855</v>
+      <c r="B13" s="20" t="n">
+        <v>43990.76434728009</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>10.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="44" t="n">
-        <v>43987.70588203704</v>
+      <c r="B14" s="21" t="n">
+        <v>43990.76889652778</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>10.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="44" t="n">
-        <v>43987.705882662034</v>
+      <c r="B15" s="21" t="n">
+        <v>43990.768897395836</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>60.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="166" t="n">
-        <v>43988.58764060185</v>
+      <c r="B16" s="22" t="n">
+        <v>43990.77053576389</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>10.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="166" t="n">
-        <v>43988.587641377315</v>
+      <c r="B17" s="22" t="n">
+        <v>43990.77053670139</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>25.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="167" t="n">
-        <v>43988.58928130787</v>
+        <v>7</v>
+      </c>
+      <c r="B18" s="23" t="n">
+        <v>43990.77173443287</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D18" t="n">
-        <v>50.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="209" t="n">
-        <v>43989.85160238426</v>
+      <c r="B19" s="23" t="n">
+        <v>43990.77173542824</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>40.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="209" t="n">
-        <v>43989.85160335648</v>
+        <v>5</v>
+      </c>
+      <c r="B20" s="24" t="n">
+        <v>43990.77282168982</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="24" t="n">
+        <v>43990.7728228125</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="25" t="n">
+        <v>43990.77485943287</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="n">
         <v>5.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="25" t="n">
+        <v>43990.774860590274</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="26" t="n">
+        <v>43990.778631284724</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="26" t="n">
+        <v>43990.77863244213</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="27" t="n">
+        <v>43990.78102162037</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="27" t="n">
+        <v>43990.78102324074</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="28" t="n">
+        <v>43990.782472719904</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="n">
+        <v>80.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="28" t="n">
+        <v>43990.7824740625</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="29" t="n">
+        <v>43990.784797141205</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="29" t="n">
+        <v>43990.78479858796</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="30" t="n">
+        <v>43990.785611354164</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="30" t="n">
+        <v>43990.78561300926</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="n" s="33">
+        <v>43991.376925474535</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="n" s="33">
+        <v>43991.376927337966</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>30.0</v>
       </c>
     </row>
   </sheetData>

--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -96,9 +96,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -656,7 +664,7 @@
       <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="B34" t="n" s="33">
+      <c r="B34" s="33" t="n">
         <v>43991.376925474535</v>
       </c>
       <c r="C34" t="s">
@@ -670,7 +678,7 @@
       <c r="A35" t="s">
         <v>7</v>
       </c>
-      <c r="B35" t="n" s="33">
+      <c r="B35" s="33" t="n">
         <v>43991.376927337966</v>
       </c>
       <c r="C35" t="s">

--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -96,9 +96,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>

--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="21">
   <si>
     <t>שם מלא</t>
   </si>
@@ -52,6 +52,30 @@
   </si>
   <si>
     <t>323439711</t>
+  </si>
+  <si>
+    <t>ישראל ישראלי</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>יראלי ישראלי</t>
+  </si>
+  <si>
+    <t>123456567</t>
+  </si>
+  <si>
+    <t>אוראל נפוסי</t>
+  </si>
+  <si>
+    <t>123245611</t>
+  </si>
+  <si>
+    <t>רום חימי</t>
+  </si>
+  <si>
+    <t>746389865</t>
   </si>
 </sst>
 </file>
@@ -96,9 +120,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -147,13 +180,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.4765625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.25390625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="13.68359375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -179,6 +212,30 @@
       </c>
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -188,7 +245,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -690,6 +747,62 @@
         <v>30.0</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="50" t="n">
+        <v>43991.83338364583</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="50" t="n">
+        <v>43991.833387164355</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="51" t="n">
+        <v>43991.83593969907</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="51" t="n">
+        <v>43991.83594711805</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -120,9 +120,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>

--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="23">
   <si>
     <t>שם מלא</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>746389865</t>
+  </si>
+  <si>
+    <t>נגד הזמן</t>
+  </si>
+  <si>
+    <t>נגד המחשב</t>
   </si>
 </sst>
 </file>
@@ -120,9 +126,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -246,7 +255,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -804,6 +813,34 @@
         <v>15.0</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="55" t="n">
+        <v>43992.93096039352</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="n">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="55" t="n">
+        <v>43992.93201335648</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="n">
+        <v>70.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataFile.xlsx
+++ b/DataFile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="23">
   <si>
     <t>שם מלא</t>
   </si>
@@ -126,9 +126,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="62">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
@@ -255,7 +260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -841,6 +846,48 @@
         <v>70.0</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="57" t="n">
+        <v>44014.56587277778</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="n">
+        <v>390.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="60" t="n">
+        <v>44014.58315222222</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="60" t="n">
+        <v>44014.583157002315</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="n">
+        <v>40.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
